--- a/manifests/planner_runs.xlsx
+++ b/manifests/planner_runs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,7 +1217,6 @@
           <t>static_vs_dynamic</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>4722</v>
       </c>
@@ -1232,6 +1231,47 @@
 - Restore a record where role is Teacher
 ## Steps
 1. EVNT_RCRD_REST_STC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-21T15:17:59</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>delete the department with the name AI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>static_vs_dynamic</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>static_vs_dynamic</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>4722</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1180</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>## Trigger
+- TRG_DB
+## Start
+- Begin deletion process for a department record
+## Steps
+1. EVNT_RCRD_DEL_STC (Delete the department record where name = "AI")
+## End
+- End</t>
         </is>
       </c>
     </row>
